--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-27.xlsx
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>9:4</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -1749,17 +1752,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1767,7 +1770,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1775,17 +1778,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1793,7 +1796,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1801,17 +1804,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1819,7 +1822,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1827,13 +1830,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1853,13 +1856,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1871,7 +1874,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1879,13 +1882,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1905,17 +1908,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1923,7 +1926,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1931,13 +1934,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1949,7 +1952,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1957,13 +1960,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1983,17 +1986,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2009,17 +2012,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2035,17 +2038,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2061,17 +2064,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2079,7 +2082,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2087,17 +2090,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2105,7 +2108,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2113,17 +2116,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2139,13 +2142,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2165,13 +2168,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2191,17 +2194,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2217,17 +2220,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2243,17 +2246,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2269,17 +2272,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2295,17 +2298,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2321,13 +2324,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2347,13 +2350,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2373,17 +2376,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2399,17 +2402,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2425,17 +2428,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2451,17 +2454,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2477,17 +2480,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2503,13 +2506,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2535,11 +2538,11 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2555,17 +2558,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>-290</v>
+        <v>84</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2581,13 +2584,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2607,13 +2610,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2633,13 +2636,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2659,13 +2662,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2691,11 +2694,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2711,17 +2714,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>27.329999999999998</v>
+        <v>72.5</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2729,7 +2732,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2737,17 +2740,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>274</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2763,17 +2766,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2789,17 +2792,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2815,17 +2818,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2841,17 +2844,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2867,17 +2870,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2893,17 +2896,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2919,17 +2922,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2945,17 +2948,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2963,7 +2966,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2971,17 +2974,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2997,17 +3000,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3023,17 +3026,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3049,17 +3052,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3067,7 +3070,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3075,17 +3078,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3101,17 +3104,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3127,17 +3130,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3153,17 +3156,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3185,11 +3188,11 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3205,13 +3208,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3237,11 +3240,11 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3263,7 +3266,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3283,17 +3286,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3309,13 +3312,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3335,13 +3338,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3353,7 +3356,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3361,17 +3364,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3387,17 +3390,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3413,13 +3416,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3439,17 +3442,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3465,17 +3468,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3491,17 +3494,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3517,17 +3520,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3535,7 +3538,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3543,17 +3546,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3575,7 +3578,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3595,13 +3598,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3627,11 +3630,11 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3647,17 +3650,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3679,11 +3682,11 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3699,17 +3702,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3725,17 +3728,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3751,17 +3754,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3777,17 +3780,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3803,13 +3806,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3829,17 +3832,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3855,17 +3858,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3873,7 +3876,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3881,17 +3884,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3907,17 +3910,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3933,13 +3936,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3959,7 +3962,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -3985,13 +3988,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4003,7 +4006,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4011,13 +4014,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4037,17 +4040,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4055,7 +4058,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4063,17 +4066,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4081,7 +4084,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4089,17 +4092,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4115,13 +4118,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4141,13 +4144,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4167,13 +4170,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4185,7 +4188,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4193,13 +4196,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4219,13 +4222,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4245,13 +4248,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4271,13 +4274,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4289,7 +4292,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4297,51 +4300,77 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" customHeight="1">
+      <c r="A128" s="6">
+        <v>125</v>
+      </c>
+      <c t="s" r="B128" s="7">
+        <v>166</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c t="s" r="H128" s="8">
+        <v>165</v>
+      </c>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="9">
+        <v>70</v>
+      </c>
+      <c r="M128" s="9"/>
+      <c t="s" r="N128" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="128" ht="25.5" customHeight="1">
-      <c r="K128" s="10">
-        <v>6813.9099999999999</v>
-      </c>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-    </row>
-    <row r="129" ht="17.25" customHeight="1">
-      <c t="s" r="A129" s="11">
-        <v>166</v>
-      </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c t="s" r="F129" s="12">
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="K129" s="10">
+        <v>6838.9099999999999</v>
+      </c>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="11">
         <v>167</v>
       </c>
-      <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
-      <c t="s" r="I129" s="14">
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c t="s" r="F130" s="12">
         <v>168</v>
       </c>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="13"/>
+      <c t="s" r="I130" s="14">
+        <v>169</v>
+      </c>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="383">
+  <mergeCells count="386">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4721,10 +4750,13 @@
     <mergeCell ref="B127:G127"/>
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
-    <mergeCell ref="K128:N128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="I129:N129"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="K129:N129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="I130:N130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
